--- a/uploads/LCS17_15.5-25.5.21.xlsx
+++ b/uploads/LCS17_15.5-25.5.21.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tuan\Desktop\doan\datt\Dữ liệu LCS\LCS17\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Môi trường\đo khí\Dữ liệu LCS\LCS17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1379D63E-CF1E-483F-96D1-83EB25473706}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{94FC7E76-F151-441E-AD82-A3E9EEC5C772}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="390" yWindow="390" windowWidth="21600" windowHeight="12735" xr2:uid="{3CCCD6E4-4A7F-4B27-BDF5-9509C113E66C}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{3CCCD6E4-4A7F-4B27-BDF5-9509C113E66C}"/>
   </bookViews>
   <sheets>
     <sheet name="Trang_tính1" sheetId="1" r:id="rId1"/>
@@ -54,9 +54,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="m/d/yyyy\ h:mm:ss\ AM/PM"/>
-  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -87,10 +84,10 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -106,7 +103,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Chủ đề Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -404,17 +401,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8260B1C-0068-44C2-A6D3-4D1CAC105DB6}">
   <dimension ref="A1:E212"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A193" workbookViewId="0">
+      <selection activeCell="A200" sqref="A200:E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -4019,6 +4016,5 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>